--- a/examples/result/Best_result.xlsx
+++ b/examples/result/Best_result.xlsx
@@ -55,10 +55,10 @@
     <t>Best Test Result Metric 2</t>
   </si>
   <si>
-    <t>Difference 1</t>
-  </si>
-  <si>
-    <t>Difference 2</t>
+    <t>Full sample - FewShot(val)</t>
+  </si>
+  <si>
+    <t>Full sample - FewShot(test)</t>
   </si>
   <si>
     <t>[kaggle]Analytics Vidhya Loan Prediction</t>

--- a/examples/result/Best_result.xlsx
+++ b/examples/result/Best_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="688">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -55,10 +55,10 @@
     <t>Best Test Result Metric 2</t>
   </si>
   <si>
-    <t>Full sample - FewShot(val)</t>
-  </si>
-  <si>
-    <t>Full sample - FewShot(test)</t>
+    <t>Full sample -&gt; FewShot(val)</t>
+  </si>
+  <si>
+    <t>Full sample -&gt; FewShot(test)</t>
   </si>
   <si>
     <t>[kaggle]Analytics Vidhya Loan Prediction</t>
@@ -1739,6 +1739,345 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.6795</t>
+  </si>
+  <si>
+    <t>+0.0173</t>
+  </si>
+  <si>
+    <t>+0.0002</t>
+  </si>
+  <si>
+    <t>+0.0344</t>
+  </si>
+  <si>
+    <t>+0.0</t>
+  </si>
+  <si>
+    <t>+0.0594</t>
+  </si>
+  <si>
+    <t>+0.0206</t>
+  </si>
+  <si>
+    <t>+0.141</t>
+  </si>
+  <si>
+    <t>+0.0442</t>
+  </si>
+  <si>
+    <t>+0.0337</t>
+  </si>
+  <si>
+    <t>+0.0127</t>
+  </si>
+  <si>
+    <t>+0.0559</t>
+  </si>
+  <si>
+    <t>+0.1455</t>
+  </si>
+  <si>
+    <t>+0.1344</t>
+  </si>
+  <si>
+    <t>+0.0535</t>
+  </si>
+  <si>
+    <t>+0.207</t>
+  </si>
+  <si>
+    <t>+0.3339</t>
+  </si>
+  <si>
+    <t>+0.0505</t>
+  </si>
+  <si>
+    <t>+0.0178</t>
+  </si>
+  <si>
+    <t>+0.0044</t>
+  </si>
+  <si>
+    <t>+0.1222</t>
+  </si>
+  <si>
+    <t>+0.1795</t>
+  </si>
+  <si>
+    <t>+0.0146</t>
+  </si>
+  <si>
+    <t>+0.2528</t>
+  </si>
+  <si>
+    <t>+0.1359</t>
+  </si>
+  <si>
+    <t>+0.066</t>
+  </si>
+  <si>
+    <t>+0.0036</t>
+  </si>
+  <si>
+    <t>+0.0603</t>
+  </si>
+  <si>
+    <t>+0.1128</t>
+  </si>
+  <si>
+    <t>+0.0198</t>
+  </si>
+  <si>
+    <t>+0.1237</t>
+  </si>
+  <si>
+    <t>+0.0364</t>
+  </si>
+  <si>
+    <t>+0.1547</t>
+  </si>
+  <si>
+    <t>+0.0595</t>
+  </si>
+  <si>
+    <t>+1.4768</t>
+  </si>
+  <si>
+    <t>+1.3977</t>
+  </si>
+  <si>
+    <t>+0.0489</t>
+  </si>
+  <si>
+    <t>+0.3409</t>
+  </si>
+  <si>
+    <t>+0.1855</t>
+  </si>
+  <si>
+    <t>+0.0284</t>
+  </si>
+  <si>
+    <t>+0.2396</t>
+  </si>
+  <si>
+    <t>+0.072</t>
+  </si>
+  <si>
+    <t>+0.1054</t>
+  </si>
+  <si>
+    <t>+0.1692</t>
+  </si>
+  <si>
+    <t>+0.0373</t>
+  </si>
+  <si>
+    <t>+0.1142</t>
+  </si>
+  <si>
+    <t>+0.0888</t>
+  </si>
+  <si>
+    <t>+0.691</t>
+  </si>
+  <si>
+    <t>+0.9056</t>
+  </si>
+  <si>
+    <t>+0.2294</t>
+  </si>
+  <si>
+    <t>+0.1686</t>
+  </si>
+  <si>
+    <t>+0.0421</t>
+  </si>
+  <si>
+    <t>+0.0469</t>
+  </si>
+  <si>
+    <t>+0.0362</t>
+  </si>
+  <si>
+    <t>+0.0091</t>
+  </si>
+  <si>
+    <t>+0.1543</t>
+  </si>
+  <si>
+    <t>+0.0287</t>
+  </si>
+  <si>
+    <t>+0.1622</t>
+  </si>
+  <si>
+    <t>+0.1592</t>
+  </si>
+  <si>
+    <t>+0.0633</t>
+  </si>
+  <si>
+    <t>+0.1156</t>
+  </si>
+  <si>
+    <t>+0.0114</t>
+  </si>
+  <si>
+    <t>+0.0024</t>
+  </si>
+  <si>
+    <t>+0.0047</t>
+  </si>
+  <si>
+    <t>+0.0249</t>
+  </si>
+  <si>
+    <t>+0.003</t>
+  </si>
+  <si>
+    <t>+0.0046</t>
+  </si>
+  <si>
+    <t>+0.0058</t>
+  </si>
+  <si>
+    <t>+0.0367</t>
+  </si>
+  <si>
+    <t>+0.0934</t>
+  </si>
+  <si>
+    <t>+0.1851</t>
+  </si>
+  <si>
+    <t>+0.348</t>
+  </si>
+  <si>
+    <t>+0.4359</t>
+  </si>
+  <si>
+    <t>+0.1124</t>
+  </si>
+  <si>
+    <t>+0.1314</t>
+  </si>
+  <si>
+    <t>+0.1488</t>
+  </si>
+  <si>
+    <t>+0.1799</t>
+  </si>
+  <si>
+    <t>+0.2534</t>
+  </si>
+  <si>
+    <t>+0.1491</t>
+  </si>
+  <si>
+    <t>+0.38</t>
+  </si>
+  <si>
+    <t>+0.0924</t>
+  </si>
+  <si>
+    <t>+0.0862</t>
+  </si>
+  <si>
+    <t>+0.047</t>
+  </si>
+  <si>
+    <t>+0.0564</t>
+  </si>
+  <si>
+    <t>+0.5535</t>
+  </si>
+  <si>
+    <t>+0.1257</t>
+  </si>
+  <si>
+    <t>+0.2084</t>
+  </si>
+  <si>
+    <t>+0.1842</t>
+  </si>
+  <si>
+    <t>+0.7948</t>
+  </si>
+  <si>
+    <t>+0.875</t>
+  </si>
+  <si>
+    <t>+0.32</t>
+  </si>
+  <si>
+    <t>+0.1611</t>
+  </si>
+  <si>
+    <t>+0.215</t>
+  </si>
+  <si>
+    <t>+0.3821</t>
+  </si>
+  <si>
+    <t>+0.1596</t>
+  </si>
+  <si>
+    <t>+0.0256</t>
+  </si>
+  <si>
+    <t>+0.0497</t>
+  </si>
+  <si>
+    <t>+0.0782</t>
+  </si>
+  <si>
+    <t>+0.4549</t>
+  </si>
+  <si>
+    <t>+0.2306</t>
+  </si>
+  <si>
+    <t>+0.3011</t>
+  </si>
+  <si>
+    <t>+0.1441</t>
+  </si>
+  <si>
+    <t>+0.1288</t>
+  </si>
+  <si>
+    <t>+0.1457</t>
+  </si>
+  <si>
+    <t>+0.0335</t>
+  </si>
+  <si>
+    <t>+0.0171</t>
+  </si>
+  <si>
+    <t>+0.075</t>
+  </si>
+  <si>
+    <t>+0.0427</t>
+  </si>
+  <si>
+    <t>+0.1558</t>
+  </si>
+  <si>
+    <t>+0.1473</t>
+  </si>
+  <si>
+    <t>+0.0717</t>
+  </si>
+  <si>
+    <t>+0.1311</t>
+  </si>
+  <si>
+    <t>+0.0122</t>
+  </si>
+  <si>
+    <t>+0.0307</t>
   </si>
 </sst>
 </file>
@@ -2195,11 +2534,11 @@
       <c r="M2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N2" s="1">
-        <v>-0.01730000000000009</v>
+      <c r="N2" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="O2" s="1">
-        <v>0.06109999999999993</v>
+        <v>-0.06109999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2242,11 +2581,11 @@
       <c r="M3" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N3" s="1">
-        <v>-0.000199999999999978</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-0.003000000000000003</v>
+      <c r="N3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2289,11 +2628,11 @@
       <c r="M4" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="N4" s="1">
-        <v>-0.03439999999999999</v>
+      <c r="N4" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="O4" s="1">
-        <v>0.01929999999999998</v>
+        <v>-0.01929999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2336,11 +2675,11 @@
       <c r="M5" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
+      <c r="N5" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="O5" s="1">
-        <v>0.04269999999999996</v>
+        <v>-0.04269999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2384,10 +2723,10 @@
         <v>471</v>
       </c>
       <c r="N6" s="1">
-        <v>0.003000000000000003</v>
+        <v>-0.003000000000000003</v>
       </c>
       <c r="O6" s="1">
-        <v>0.01019999999999999</v>
+        <v>-0.01019999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2431,10 +2770,10 @@
         <v>472</v>
       </c>
       <c r="N7" s="1">
-        <v>0.01800000000000002</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="O7" s="1">
-        <v>0.1888000000000001</v>
+        <v>-0.1888000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2477,11 +2816,11 @@
       <c r="M8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
+      <c r="N8" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="O8" s="1">
-        <v>0.0009000000000000119</v>
+        <v>-0.0009000000000000119</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2525,10 +2864,10 @@
         <v>473</v>
       </c>
       <c r="N9" s="1">
-        <v>0.01490000000000002</v>
+        <v>-0.01490000000000002</v>
       </c>
       <c r="O9" s="1">
-        <v>0.08250000000000002</v>
+        <v>-0.08250000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2572,10 +2911,10 @@
         <v>474</v>
       </c>
       <c r="N10" s="1">
-        <v>0.4161</v>
-      </c>
-      <c r="O10" s="1">
-        <v>-0.004600000000000048</v>
+        <v>-0.4161</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2619,10 +2958,10 @@
         <v>475</v>
       </c>
       <c r="N11" s="1">
-        <v>0.07219999999999993</v>
+        <v>-0.07219999999999993</v>
       </c>
       <c r="O11" s="1">
-        <v>0.04519999999999991</v>
+        <v>-0.04519999999999991</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2666,10 +3005,10 @@
         <v>476</v>
       </c>
       <c r="N12" s="1">
-        <v>0.005700000000000038</v>
+        <v>-0.005700000000000038</v>
       </c>
       <c r="O12" s="1">
-        <v>0.07250000000000001</v>
+        <v>-0.07250000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2713,10 +3052,10 @@
         <v>477</v>
       </c>
       <c r="N13" s="1">
-        <v>0.3333</v>
+        <v>-0.3333</v>
       </c>
       <c r="O13" s="1">
-        <v>0.2958999999999999</v>
+        <v>-0.2958999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2760,10 +3099,10 @@
         <v>478</v>
       </c>
       <c r="N14" s="1">
-        <v>0.1118</v>
+        <v>-0.1118</v>
       </c>
       <c r="O14" s="1">
-        <v>0.09100000000000008</v>
+        <v>-0.09100000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2807,10 +3146,10 @@
         <v>252</v>
       </c>
       <c r="N15" s="1">
-        <v>0.09040000000000004</v>
+        <v>-0.09040000000000004</v>
       </c>
       <c r="O15" s="1">
-        <v>0.1071</v>
+        <v>-0.1071</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2854,10 +3193,10 @@
         <v>479</v>
       </c>
       <c r="N16" s="1">
-        <v>0.03290000000000004</v>
+        <v>-0.03290000000000004</v>
       </c>
       <c r="O16" s="1">
-        <v>0.02939999999999998</v>
+        <v>-0.02939999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2901,10 +3240,10 @@
         <v>480</v>
       </c>
       <c r="N17" s="1">
-        <v>0.219</v>
+        <v>-0.219</v>
       </c>
       <c r="O17" s="1">
-        <v>0.1614</v>
+        <v>-0.1614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2948,10 +3287,10 @@
         <v>481</v>
       </c>
       <c r="N18" s="1">
-        <v>0.0534</v>
+        <v>-0.0534</v>
       </c>
       <c r="O18" s="1">
-        <v>0.05210000000000004</v>
+        <v>-0.05210000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2994,11 +3333,11 @@
       <c r="M19" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="N19" s="1">
-        <v>-0.05940000000000001</v>
+      <c r="N19" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="O19" s="1">
-        <v>0.08140000000000003</v>
+        <v>-0.08140000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3041,11 +3380,11 @@
       <c r="M20" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="N20" s="1">
-        <v>-0.02059999999999995</v>
+      <c r="N20" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="O20" s="1">
-        <v>0.5335000000000001</v>
+        <v>-0.5335000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3088,11 +3427,11 @@
       <c r="M21" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="N21" s="1">
-        <v>-0.141</v>
+      <c r="N21" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="O21" s="1">
-        <v>0.01890000000000003</v>
+        <v>-0.01890000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3136,10 +3475,10 @@
         <v>485</v>
       </c>
       <c r="N22" s="1">
-        <v>0.7273000000000001</v>
+        <v>-0.7273000000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.7469</v>
+        <v>-0.7469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3183,10 +3522,10 @@
         <v>180</v>
       </c>
       <c r="N23" s="1">
-        <v>0.01349999999999996</v>
+        <v>-0.01349999999999996</v>
       </c>
       <c r="O23" s="1">
-        <v>0.2778</v>
+        <v>-0.2778</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3230,10 +3569,10 @@
         <v>486</v>
       </c>
       <c r="N24" s="1">
-        <v>0.03280000000000005</v>
+        <v>-0.03280000000000005</v>
       </c>
       <c r="O24" s="1">
-        <v>0.05100000000000005</v>
+        <v>-0.05100000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3277,10 +3616,10 @@
         <v>487</v>
       </c>
       <c r="N25" s="1">
-        <v>0.2262</v>
+        <v>-0.2262</v>
       </c>
       <c r="O25" s="1">
-        <v>0.4792</v>
+        <v>-0.4792</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3324,10 +3663,10 @@
         <v>488</v>
       </c>
       <c r="N26" s="1">
-        <v>0.01190000000000002</v>
-      </c>
-      <c r="O26" s="1">
-        <v>-0.005799999999999916</v>
+        <v>-0.01190000000000002</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3371,10 +3710,10 @@
         <v>489</v>
       </c>
       <c r="N27" s="1">
-        <v>0.1221</v>
+        <v>-0.1221</v>
       </c>
       <c r="O27" s="1">
-        <v>0.06070000000000009</v>
+        <v>-0.06070000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3418,10 +3757,10 @@
         <v>490</v>
       </c>
       <c r="N28" s="1">
-        <v>0.1332</v>
+        <v>-0.1332</v>
       </c>
       <c r="O28" s="1">
-        <v>0.152</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3465,10 +3804,10 @@
         <v>491</v>
       </c>
       <c r="N29" s="1">
-        <v>0.002600000000000047</v>
+        <v>-0.002600000000000047</v>
       </c>
       <c r="O29" s="1">
-        <v>0.002399999999999958</v>
+        <v>-0.002399999999999958</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3512,10 +3851,10 @@
         <v>492</v>
       </c>
       <c r="N30" s="1">
-        <v>0.1857</v>
+        <v>-0.1857</v>
       </c>
       <c r="O30" s="1">
-        <v>0.1143</v>
+        <v>-0.1143</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3559,10 +3898,10 @@
         <v>493</v>
       </c>
       <c r="N31" s="1">
-        <v>0.1195999999999999</v>
+        <v>-0.1195999999999999</v>
       </c>
       <c r="O31" s="1">
-        <v>0.04979999999999996</v>
+        <v>-0.04979999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3606,10 +3945,10 @@
         <v>494</v>
       </c>
       <c r="N32" s="1">
-        <v>0.07410000000000005</v>
+        <v>-0.07410000000000005</v>
       </c>
       <c r="O32" s="1">
-        <v>0.1014</v>
+        <v>-0.1014</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3652,11 +3991,11 @@
       <c r="M33" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
+      <c r="N33" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="O33" s="1">
-        <v>0.02389999999999992</v>
+        <v>-0.02389999999999992</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3700,10 +4039,10 @@
         <v>495</v>
       </c>
       <c r="N34" s="1">
-        <v>0.1822</v>
+        <v>-0.1822</v>
       </c>
       <c r="O34" s="1">
-        <v>0.06559999999999999</v>
+        <v>-0.06559999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3747,10 +4086,10 @@
         <v>496</v>
       </c>
       <c r="N35" s="1">
-        <v>0.01939999999999997</v>
+        <v>-0.01939999999999997</v>
       </c>
       <c r="O35" s="1">
-        <v>0.1342</v>
+        <v>-0.1342</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3794,10 +4133,10 @@
         <v>497</v>
       </c>
       <c r="N36" s="1">
-        <v>0.007299999999999973</v>
+        <v>-0.007299999999999973</v>
       </c>
       <c r="O36" s="1">
-        <v>0.01649999999999996</v>
+        <v>-0.01649999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3841,10 +4180,10 @@
         <v>498</v>
       </c>
       <c r="N37" s="1">
-        <v>0.2206</v>
+        <v>-0.2206</v>
       </c>
       <c r="O37" s="1">
-        <v>0.1786000000000001</v>
+        <v>-0.1786000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3888,10 +4227,10 @@
         <v>383</v>
       </c>
       <c r="N38" s="1">
-        <v>0.001900000000000013</v>
+        <v>-0.001900000000000013</v>
       </c>
       <c r="O38" s="1">
-        <v>0.008400000000000074</v>
+        <v>-0.008400000000000074</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3934,11 +4273,11 @@
       <c r="M39" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="N39" s="1">
-        <v>-0.04419999999999991</v>
+      <c r="N39" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="O39" s="1">
-        <v>0.1013999999999999</v>
+        <v>-0.1013999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3982,10 +4321,10 @@
         <v>500</v>
       </c>
       <c r="N40" s="1">
-        <v>0.106</v>
+        <v>-0.106</v>
       </c>
       <c r="O40" s="1">
-        <v>0.1093000000000001</v>
+        <v>-0.1093000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -4029,10 +4368,10 @@
         <v>501</v>
       </c>
       <c r="N41" s="1">
-        <v>0.1031</v>
+        <v>-0.1031</v>
       </c>
       <c r="O41" s="1">
-        <v>0.06110000000000004</v>
+        <v>-0.06110000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -4076,10 +4415,10 @@
         <v>502</v>
       </c>
       <c r="N42" s="1">
-        <v>0.1146</v>
+        <v>-0.1146</v>
       </c>
       <c r="O42" s="1">
-        <v>0.06009999999999993</v>
+        <v>-0.06009999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -4123,10 +4462,10 @@
         <v>503</v>
       </c>
       <c r="N43" s="1">
-        <v>0.1025</v>
+        <v>-0.1025</v>
       </c>
       <c r="O43" s="1">
-        <v>0.009600000000000053</v>
+        <v>-0.009600000000000053</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -4170,10 +4509,10 @@
         <v>504</v>
       </c>
       <c r="N44" s="1">
-        <v>0.03510000000000002</v>
+        <v>-0.03510000000000002</v>
       </c>
       <c r="O44" s="1">
-        <v>0.0635</v>
+        <v>-0.0635</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4217,10 +4556,10 @@
         <v>505</v>
       </c>
       <c r="N45" s="1">
-        <v>0.01519999999999999</v>
+        <v>-0.01519999999999999</v>
       </c>
       <c r="O45" s="1">
-        <v>0.06679999999999997</v>
+        <v>-0.06679999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4263,11 +4602,11 @@
       <c r="M46" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="N46" s="1">
-        <v>-0.03369999999999995</v>
+      <c r="N46" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="O46" s="1">
-        <v>0.004000000000000004</v>
+        <v>-0.004000000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4311,10 +4650,10 @@
         <v>507</v>
       </c>
       <c r="N47" s="1">
-        <v>0.0645</v>
+        <v>-0.0645</v>
       </c>
       <c r="O47" s="1">
-        <v>0.1474</v>
+        <v>-0.1474</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4358,10 +4697,10 @@
         <v>508</v>
       </c>
       <c r="N48" s="1">
-        <v>0.4145</v>
+        <v>-0.4145</v>
       </c>
       <c r="O48" s="1">
-        <v>0.08249999999999991</v>
+        <v>-0.08249999999999991</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4405,10 +4744,10 @@
         <v>509</v>
       </c>
       <c r="N49" s="1">
-        <v>0.1849</v>
+        <v>-0.1849</v>
       </c>
       <c r="O49" s="1">
-        <v>0.2542</v>
+        <v>-0.2542</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4452,10 +4791,10 @@
         <v>510</v>
       </c>
       <c r="N50" s="1">
-        <v>0.2258</v>
+        <v>-0.2258</v>
       </c>
       <c r="O50" s="1">
-        <v>0.06030000000000002</v>
+        <v>-0.06030000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4498,11 +4837,11 @@
       <c r="M51" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="N51" s="1">
-        <v>-0.0127</v>
+      <c r="N51" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="O51" s="1">
-        <v>0.01429999999999999</v>
+        <v>-0.01429999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4545,11 +4884,11 @@
       <c r="M52" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="N52" s="1">
-        <v>-0.0001999999999999919</v>
+      <c r="N52" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="O52" s="1">
-        <v>0.007599999999999996</v>
+        <v>-0.007599999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4592,11 +4931,11 @@
       <c r="M53" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="N53" s="1">
-        <v>-0.05589999999999999</v>
-      </c>
-      <c r="O53" s="1">
-        <v>-0.0367</v>
+      <c r="N53" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4639,11 +4978,11 @@
       <c r="M54" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="N54" s="1">
-        <v>-0.1455000000000001</v>
+      <c r="N54" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="O54" s="1">
-        <v>0.008700000000000152</v>
+        <v>-0.008700000000000152</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4686,11 +5025,11 @@
       <c r="M55" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="N55" s="1">
-        <v>-0.1343999999999999</v>
-      </c>
-      <c r="O55" s="1">
-        <v>-0.09340000000000004</v>
+      <c r="N55" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4733,11 +5072,11 @@
       <c r="M56" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="N56" s="1">
-        <v>-0.05350000000000005</v>
-      </c>
-      <c r="O56" s="1">
-        <v>-0.1851</v>
+      <c r="N56" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4780,11 +5119,11 @@
       <c r="M57" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="N57" s="1">
-        <v>-0.207</v>
-      </c>
-      <c r="O57" s="1">
-        <v>-0.348</v>
+      <c r="N57" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4827,11 +5166,11 @@
       <c r="M58" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="N58" s="1">
-        <v>-0.3339</v>
-      </c>
-      <c r="O58" s="1">
-        <v>-0.4359</v>
+      <c r="N58" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4874,11 +5213,11 @@
       <c r="M59" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="N59" s="1">
-        <v>-0.05049999999999999</v>
-      </c>
-      <c r="O59" s="1">
-        <v>-0.1124000000000001</v>
+      <c r="N59" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4921,11 +5260,11 @@
       <c r="M60" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="N60" s="1">
-        <v>-0.01779999999999998</v>
-      </c>
-      <c r="O60" s="1">
-        <v>-0.1314000000000001</v>
+      <c r="N60" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4968,11 +5307,11 @@
       <c r="M61" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="N61" s="1">
-        <v>-0.004400000000000015</v>
-      </c>
-      <c r="O61" s="1">
-        <v>-0.1488</v>
+      <c r="N61" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -5015,11 +5354,11 @@
       <c r="M62" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="N62" s="1">
-        <v>-0.1222</v>
-      </c>
-      <c r="O62" s="1">
-        <v>-0.1798999999999999</v>
+      <c r="N62" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -5062,11 +5401,11 @@
       <c r="M63" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="N63" s="1">
-        <v>-0.1795</v>
-      </c>
-      <c r="O63" s="1">
-        <v>-0.2534000000000001</v>
+      <c r="N63" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -5109,11 +5448,11 @@
       <c r="M64" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="N64" s="1">
-        <v>-0.0146</v>
-      </c>
-      <c r="O64" s="1">
-        <v>-0.1491</v>
+      <c r="N64" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -5157,10 +5496,10 @@
         <v>525</v>
       </c>
       <c r="N65" s="1">
-        <v>0.4815000000000002</v>
+        <v>-0.4815000000000002</v>
       </c>
       <c r="O65" s="1">
-        <v>0.02000000000000002</v>
+        <v>-0.02000000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -5203,11 +5542,11 @@
       <c r="M66" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="N66" s="1">
-        <v>-0.2528</v>
-      </c>
-      <c r="O66" s="1">
-        <v>-0.38</v>
+      <c r="N66" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -5250,11 +5589,11 @@
       <c r="M67" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="N67" s="1">
-        <v>-0.1359</v>
-      </c>
-      <c r="O67" s="1">
-        <v>-0.09239999999999998</v>
+      <c r="N67" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -5297,11 +5636,11 @@
       <c r="M68" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="N68" s="1">
-        <v>-0.06599999999999984</v>
-      </c>
-      <c r="O68" s="1">
-        <v>-0.08619999999999994</v>
+      <c r="N68" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5344,11 +5683,11 @@
       <c r="M69" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="N69" s="1">
-        <v>-0.003600000000000048</v>
-      </c>
-      <c r="O69" s="1">
-        <v>-0.04699999999999993</v>
+      <c r="N69" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -5391,11 +5730,11 @@
       <c r="M70" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="N70" s="1">
-        <v>-0.06030000000000002</v>
-      </c>
-      <c r="O70" s="1">
-        <v>-0.09340000000000015</v>
+      <c r="N70" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -5438,11 +5777,11 @@
       <c r="M71" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="N71" s="1">
-        <v>-0.1127999999999999</v>
-      </c>
-      <c r="O71" s="1">
-        <v>-0.05639999999999989</v>
+      <c r="N71" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -5485,11 +5824,11 @@
       <c r="M72" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N72" s="1">
-        <v>-0.01980000000000004</v>
-      </c>
-      <c r="O72" s="1">
-        <v>0</v>
+      <c r="N72" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -5532,11 +5871,11 @@
       <c r="M73" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="N73" s="1">
-        <v>-0.1237</v>
-      </c>
-      <c r="O73" s="1">
-        <v>-0.5534999999999999</v>
+      <c r="N73" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -5579,11 +5918,11 @@
       <c r="M74" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="N74" s="1">
-        <v>-0.03639999999999999</v>
-      </c>
-      <c r="O74" s="1">
-        <v>-0.1257</v>
+      <c r="N74" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -5626,11 +5965,11 @@
       <c r="M75" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="N75" s="1">
-        <v>-0.1547</v>
-      </c>
-      <c r="O75" s="1">
-        <v>-0.2084</v>
+      <c r="N75" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -5673,11 +6012,11 @@
       <c r="M76" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="N76" s="1">
-        <v>-0.0595</v>
-      </c>
-      <c r="O76" s="1">
-        <v>-0.1842</v>
+      <c r="N76" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5720,11 +6059,11 @@
       <c r="M77" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="N77" s="1">
-        <v>-1.4768</v>
-      </c>
-      <c r="O77" s="1">
-        <v>-0.7948</v>
+      <c r="N77" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5767,11 +6106,11 @@
       <c r="M78" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="N78" s="1">
-        <v>-1.3977</v>
-      </c>
-      <c r="O78" s="1">
-        <v>-0.875</v>
+      <c r="N78" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -5814,11 +6153,11 @@
       <c r="M79" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="N79" s="1">
-        <v>-0.04889999999999994</v>
+      <c r="N79" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="O79" s="1">
-        <v>0.002799999999999914</v>
+        <v>-0.002799999999999914</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5861,11 +6200,11 @@
       <c r="M80" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="N80" s="1">
-        <v>-0.3409</v>
-      </c>
-      <c r="O80" s="1">
-        <v>-0.32</v>
+      <c r="N80" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5908,11 +6247,11 @@
       <c r="M81" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="N81" s="1">
-        <v>-0.1855</v>
+      <c r="N81" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="O81" s="1">
-        <v>0.02049999999999996</v>
+        <v>-0.02049999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5955,11 +6294,11 @@
       <c r="M82" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="N82" s="1">
-        <v>-0.02839999999999998</v>
+      <c r="N82" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="O82" s="1">
-        <v>0.02350000000000008</v>
+        <v>-0.02350000000000008</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -6002,11 +6341,11 @@
       <c r="M83" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="N83" s="1">
-        <v>-0.2396000000000001</v>
-      </c>
-      <c r="O83" s="1">
-        <v>-0.1611</v>
+      <c r="N83" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -6049,11 +6388,11 @@
       <c r="M84" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="N84" s="1">
-        <v>-0.07200000000000001</v>
-      </c>
-      <c r="O84" s="1">
-        <v>-0.215</v>
+      <c r="N84" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -6096,11 +6435,11 @@
       <c r="M85" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="N85" s="1">
-        <v>-0.1053999999999999</v>
-      </c>
-      <c r="O85" s="1">
-        <v>-0.3821</v>
+      <c r="N85" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -6143,11 +6482,11 @@
       <c r="M86" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="N86" s="1">
-        <v>-0.1691999999999999</v>
-      </c>
-      <c r="O86" s="1">
-        <v>-0.1596000000000001</v>
+      <c r="N86" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -6190,11 +6529,11 @@
       <c r="M87" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="N87" s="1">
-        <v>-0.0373</v>
-      </c>
-      <c r="O87" s="1">
-        <v>-0.02559999999999996</v>
+      <c r="N87" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -6237,11 +6576,11 @@
       <c r="M88" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="N88" s="1">
-        <v>-0.1142000000000001</v>
-      </c>
-      <c r="O88" s="1">
-        <v>-0.04969999999999997</v>
+      <c r="N88" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -6284,11 +6623,11 @@
       <c r="M89" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="N89" s="1">
-        <v>-0.08879999999999996</v>
-      </c>
-      <c r="O89" s="1">
-        <v>-0.07820000000000002</v>
+      <c r="N89" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -6331,11 +6670,11 @@
       <c r="M90" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="N90" s="1">
-        <v>-0.6909999999999999</v>
-      </c>
-      <c r="O90" s="1">
-        <v>-0.4549</v>
+      <c r="N90" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -6379,10 +6718,10 @@
         <v>230</v>
       </c>
       <c r="N91" s="1">
-        <v>0.006000000000000005</v>
-      </c>
-      <c r="O91" s="1">
-        <v>-0.2306</v>
+        <v>-0.006000000000000005</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -6425,11 +6764,11 @@
       <c r="M92" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="N92" s="1">
-        <v>-0.9055999999999998</v>
+      <c r="N92" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="O92" s="1">
-        <v>0.1172</v>
+        <v>-0.1172</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -6472,11 +6811,11 @@
       <c r="M93" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="N93" s="1">
-        <v>-0.2294</v>
-      </c>
-      <c r="O93" s="1">
-        <v>-0.3011</v>
+      <c r="N93" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -6520,10 +6859,10 @@
         <v>551</v>
       </c>
       <c r="N94" s="1">
-        <v>0.3766</v>
+        <v>-0.3766</v>
       </c>
       <c r="O94" s="1">
-        <v>0.04339999999999999</v>
+        <v>-0.04339999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -6566,11 +6905,11 @@
       <c r="M95" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="N95" s="1">
-        <v>-0.1686</v>
-      </c>
-      <c r="O95" s="1">
-        <v>-0.1441</v>
+      <c r="N95" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -6613,11 +6952,11 @@
       <c r="M96" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="N96" s="1">
-        <v>-0.04210000000000003</v>
-      </c>
-      <c r="O96" s="1">
-        <v>-0.1288</v>
+      <c r="N96" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -6660,11 +6999,11 @@
       <c r="M97" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="N97" s="1">
-        <v>-0.0469</v>
-      </c>
-      <c r="O97" s="1">
-        <v>-0.1457</v>
+      <c r="N97" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -6708,10 +7047,10 @@
         <v>555</v>
       </c>
       <c r="N98" s="1">
-        <v>0.05810000000000004</v>
+        <v>-0.05810000000000004</v>
       </c>
       <c r="O98" s="1">
-        <v>0.05069999999999997</v>
+        <v>-0.05069999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -6754,11 +7093,11 @@
       <c r="M99" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="N99" s="1">
-        <v>-0.0361999999999999</v>
-      </c>
-      <c r="O99" s="1">
-        <v>-0.03349999999999997</v>
+      <c r="N99" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -6802,10 +7141,10 @@
         <v>272</v>
       </c>
       <c r="N100" s="1">
-        <v>0.01010000000000011</v>
+        <v>-0.01010000000000011</v>
       </c>
       <c r="O100" s="1">
-        <v>0.01019999999999999</v>
+        <v>-0.01019999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -6848,11 +7187,11 @@
       <c r="M101" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="N101" s="1">
-        <v>-0.009099999999999997</v>
-      </c>
-      <c r="O101" s="1">
-        <v>-0.0171</v>
+      <c r="N101" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -6896,10 +7235,10 @@
         <v>558</v>
       </c>
       <c r="N102" s="1">
-        <v>0.06869999999999998</v>
+        <v>-0.06869999999999998</v>
       </c>
       <c r="O102" s="1">
-        <v>0.06130000000000002</v>
+        <v>-0.06130000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -6943,10 +7282,10 @@
         <v>559</v>
       </c>
       <c r="N103" s="1">
-        <v>0.0595</v>
+        <v>-0.0595</v>
       </c>
       <c r="O103" s="1">
-        <v>0.05659999999999998</v>
+        <v>-0.05659999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -6990,10 +7329,10 @@
         <v>560</v>
       </c>
       <c r="N104" s="1">
-        <v>0.1859</v>
+        <v>-0.1859</v>
       </c>
       <c r="O104" s="1">
-        <v>0.2135</v>
+        <v>-0.2135</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -7037,10 +7376,10 @@
         <v>561</v>
       </c>
       <c r="N105" s="1">
-        <v>0.08189999999999997</v>
+        <v>-0.08189999999999997</v>
       </c>
       <c r="O105" s="1">
-        <v>0.07680000000000003</v>
+        <v>-0.07680000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -7084,10 +7423,10 @@
         <v>562</v>
       </c>
       <c r="N106" s="1">
-        <v>0.04509999999999992</v>
+        <v>-0.04509999999999992</v>
       </c>
       <c r="O106" s="1">
-        <v>0.04759999999999998</v>
+        <v>-0.04759999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -7131,10 +7470,10 @@
         <v>563</v>
       </c>
       <c r="N107" s="1">
-        <v>0.07220000000000004</v>
+        <v>-0.07220000000000004</v>
       </c>
       <c r="O107" s="1">
-        <v>0.07190000000000007</v>
+        <v>-0.07190000000000007</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -7178,10 +7517,10 @@
         <v>564</v>
       </c>
       <c r="N108" s="1">
-        <v>0.1746</v>
+        <v>-0.1746</v>
       </c>
       <c r="O108" s="1">
-        <v>0.003000000000000003</v>
+        <v>-0.003000000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -7224,11 +7563,11 @@
       <c r="M109" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="N109" s="1">
-        <v>-0.1543</v>
-      </c>
-      <c r="O109" s="1">
-        <v>-0.075</v>
+      <c r="N109" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -7271,11 +7610,11 @@
       <c r="M110" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="N110" s="1">
-        <v>-0.0287</v>
-      </c>
-      <c r="O110" s="1">
-        <v>-0.04270000000000002</v>
+      <c r="N110" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -7318,11 +7657,11 @@
       <c r="M111" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="N111" s="1">
-        <v>-0.1622</v>
-      </c>
-      <c r="O111" s="1">
-        <v>-0.1558</v>
+      <c r="N111" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -7365,11 +7704,11 @@
       <c r="M112" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="N112" s="1">
-        <v>-0.1592</v>
-      </c>
-      <c r="O112" s="1">
-        <v>-0.1473</v>
+      <c r="N112" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -7412,11 +7751,11 @@
       <c r="M113" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="N113" s="1">
-        <v>-0.06329999999999997</v>
-      </c>
-      <c r="O113" s="1">
-        <v>-0.07169999999999999</v>
+      <c r="N113" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -7459,11 +7798,11 @@
       <c r="M114" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="N114" s="1">
-        <v>-0.1156</v>
-      </c>
-      <c r="O114" s="1">
-        <v>-0.1311</v>
+      <c r="N114" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -7506,11 +7845,11 @@
       <c r="M115" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="N115" s="1">
-        <v>-0.01139999999999999</v>
-      </c>
-      <c r="O115" s="1">
-        <v>-0.01219999999999999</v>
+      <c r="N115" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -7553,11 +7892,11 @@
       <c r="M116" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="N116" s="1">
-        <v>-0.002400000000000013</v>
+      <c r="N116" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="O116" s="1">
-        <v>0.001200000000000007</v>
+        <v>-0.001200000000000007</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -7600,11 +7939,11 @@
       <c r="M117" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="N117" s="1">
-        <v>-0.004700000000000001</v>
-      </c>
-      <c r="O117" s="1">
-        <v>-0.0046</v>
+      <c r="N117" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -7647,11 +7986,11 @@
       <c r="M118" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="N118" s="1">
-        <v>-0.02489999999999992</v>
-      </c>
-      <c r="O118" s="1">
-        <v>-0.03069999999999995</v>
+      <c r="N118" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
